--- a/OlymicData-3.xlsx
+++ b/OlymicData-3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl Local\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl Local\Documents\GitHub\KLDDYork.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED535F49-36A7-41C1-B61C-53A06AB7A060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3702720-E0E8-49B7-89D4-4B7ABB06E8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2895" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>athlete</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>grerargg</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -848,6 +851,38 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>2012</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42711</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
     </row>
